--- a/Project/tool/convertExcelLua/src/Achieve.xlsx
+++ b/Project/tool/convertExcelLua/src/Achieve.xlsx
@@ -276,7 +276,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="71">
   <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -286,10 +286,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>itemName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>number</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -302,10 +298,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>count</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>成就ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -450,16 +442,101 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>icon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>iconRes</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图标资源名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>state</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>totalprocess</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>achieve_title1.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>achieve_title2.png</t>
+  </si>
+  <si>
+    <t>achieve_title3.png</t>
+  </si>
+  <si>
+    <t>achieve_title4.png</t>
+  </si>
+  <si>
+    <t>achieve_title5.png</t>
+  </si>
+  <si>
+    <t>achieve_title6.png</t>
+  </si>
+  <si>
+    <t>achieve_title7.png</t>
+  </si>
+  <si>
+    <t>achieve_title8.png</t>
+  </si>
+  <si>
+    <t>achieve_title9.png</t>
+  </si>
+  <si>
+    <t>achieve_title21.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>achieve_title22.png</t>
+  </si>
+  <si>
+    <t>achieve_title23.png</t>
+  </si>
+  <si>
+    <t>achieve_title24.png</t>
+  </si>
+  <si>
+    <t>achieve_title25.png</t>
+  </si>
+  <si>
+    <t>achieve_title26.png</t>
+  </si>
+  <si>
+    <t>achieve_title27.png</t>
+  </si>
+  <si>
+    <t>achieve_title28.png</t>
+  </si>
+  <si>
+    <t>achieve_title29.png</t>
+  </si>
+  <si>
+    <t>achieve_title30.png</t>
+  </si>
+  <si>
+    <t>achieve_title31.png</t>
+  </si>
+  <si>
+    <t>achieve_title32.png</t>
+  </si>
+  <si>
+    <t>achieve_title33.png</t>
+  </si>
+  <si>
+    <t>achieve_title34.png</t>
+  </si>
+  <si>
+    <t>achieve_title35.png</t>
+  </si>
+  <si>
+    <t>achieve_title36.png</t>
   </si>
 </sst>
 </file>
@@ -599,7 +676,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -616,9 +693,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1029,7 +1103,7 @@
   <dimension ref="A1:H48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A28"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1045,81 +1119,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="7" t="s">
+      <c r="A1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="30">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="G1" s="7" t="s">
+      <c r="G2" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>41</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>4</v>
-      </c>
       <c r="F3" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="16.5">
@@ -1127,7 +1201,7 @@
         <v>1001</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C4" s="3">
         <v>1</v>
@@ -1144,14 +1218,16 @@
       <c r="G4" s="3">
         <v>10</v>
       </c>
-      <c r="H4" s="3"/>
+      <c r="H4" s="3" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="5" spans="1:8" ht="16.5">
       <c r="A5" s="3">
         <v>1002</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C5" s="3">
         <v>1</v>
@@ -1168,14 +1244,16 @@
       <c r="G5" s="3">
         <v>11</v>
       </c>
-      <c r="H5" s="3"/>
+      <c r="H5" s="3" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="6" spans="1:8" ht="16.5">
       <c r="A6" s="3">
         <v>1003</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C6" s="3">
         <v>1</v>
@@ -1192,14 +1270,16 @@
       <c r="G6" s="3">
         <v>12</v>
       </c>
-      <c r="H6" s="3"/>
+      <c r="H6" s="3" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="7" spans="1:8" ht="16.5">
       <c r="A7" s="3">
         <v>1004</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C7" s="3">
         <v>1</v>
@@ -1216,14 +1296,16 @@
       <c r="G7" s="3">
         <v>13</v>
       </c>
-      <c r="H7" s="3"/>
+      <c r="H7" s="3" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="8" spans="1:8" ht="16.5">
       <c r="A8" s="3">
         <v>1005</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C8" s="3">
         <v>1</v>
@@ -1240,14 +1322,16 @@
       <c r="G8" s="3">
         <v>14</v>
       </c>
-      <c r="H8" s="3"/>
+      <c r="H8" s="3" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="9" spans="1:8" s="1" customFormat="1" ht="16.5">
       <c r="A9" s="3">
         <v>1006</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C9" s="3">
         <v>1</v>
@@ -1264,14 +1348,16 @@
       <c r="G9" s="3">
         <v>15</v>
       </c>
-      <c r="H9" s="3"/>
+      <c r="H9" s="3" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="10" spans="1:8" ht="16.5">
       <c r="A10" s="3">
         <v>1007</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C10" s="3">
         <v>1</v>
@@ -1288,14 +1374,16 @@
       <c r="G10" s="3">
         <v>16</v>
       </c>
-      <c r="H10" s="3"/>
+      <c r="H10" s="3" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="11" spans="1:8" ht="16.5">
       <c r="A11" s="3">
         <v>1008</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C11" s="3">
         <v>1</v>
@@ -1312,14 +1400,16 @@
       <c r="G11" s="3">
         <v>17</v>
       </c>
-      <c r="H11" s="3"/>
+      <c r="H11" s="3" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="12" spans="1:8" ht="16.5">
       <c r="A12" s="3">
         <v>1009</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C12" s="3">
         <v>1</v>
@@ -1336,14 +1426,16 @@
       <c r="G12" s="3">
         <v>18</v>
       </c>
-      <c r="H12" s="3"/>
+      <c r="H12" s="3" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="13" spans="1:8" ht="16.5">
       <c r="A13" s="3">
         <v>1010</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C13" s="3">
         <v>2</v>
@@ -1360,14 +1452,16 @@
       <c r="G13" s="3">
         <v>19</v>
       </c>
-      <c r="H13" s="3"/>
+      <c r="H13" s="3" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="14" spans="1:8" ht="16.5">
       <c r="A14" s="3">
         <v>1011</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C14" s="3">
         <v>2</v>
@@ -1384,14 +1478,16 @@
       <c r="G14" s="3">
         <v>20</v>
       </c>
-      <c r="H14" s="3"/>
+      <c r="H14" s="3" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="15" spans="1:8" ht="16.5">
       <c r="A15" s="3">
         <v>1012</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C15" s="3">
         <v>2</v>
@@ -1408,14 +1504,16 @@
       <c r="G15" s="3">
         <v>21</v>
       </c>
-      <c r="H15" s="3"/>
+      <c r="H15" s="3" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="16" spans="1:8" ht="16.5">
       <c r="A16" s="3">
         <v>1013</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C16" s="3">
         <v>2</v>
@@ -1432,14 +1530,16 @@
       <c r="G16" s="3">
         <v>22</v>
       </c>
-      <c r="H16" s="3"/>
+      <c r="H16" s="3" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="17" spans="1:8" ht="16.5">
       <c r="A17" s="3">
         <v>1014</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C17" s="3">
         <v>2</v>
@@ -1456,14 +1556,16 @@
       <c r="G17" s="3">
         <v>23</v>
       </c>
-      <c r="H17" s="3"/>
+      <c r="H17" s="3" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="18" spans="1:8" ht="16.5">
       <c r="A18" s="3">
         <v>1015</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C18" s="3">
         <v>3</v>
@@ -1480,14 +1582,16 @@
       <c r="G18" s="3">
         <v>24</v>
       </c>
-      <c r="H18" s="3"/>
+      <c r="H18" s="3" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="19" spans="1:8" ht="16.5">
       <c r="A19" s="3">
         <v>1016</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C19" s="3">
         <v>3</v>
@@ -1504,14 +1608,16 @@
       <c r="G19" s="3">
         <v>25</v>
       </c>
-      <c r="H19" s="3"/>
+      <c r="H19" s="3" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="20" spans="1:8" ht="16.5">
       <c r="A20" s="3">
         <v>1017</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C20" s="3">
         <v>3</v>
@@ -1528,14 +1634,16 @@
       <c r="G20" s="3">
         <v>26</v>
       </c>
-      <c r="H20" s="3"/>
+      <c r="H20" s="3" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="21" spans="1:8" ht="16.5">
       <c r="A21" s="3">
         <v>1018</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C21" s="3">
         <v>3</v>
@@ -1552,14 +1660,16 @@
       <c r="G21" s="3">
         <v>27</v>
       </c>
-      <c r="H21" s="3"/>
+      <c r="H21" s="3" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="22" spans="1:8" ht="16.5">
       <c r="A22" s="3">
         <v>1019</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C22" s="3">
         <v>3</v>
@@ -1576,14 +1686,16 @@
       <c r="G22" s="3">
         <v>28</v>
       </c>
-      <c r="H22" s="3"/>
+      <c r="H22" s="3" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="23" spans="1:8" ht="16.5">
       <c r="A23" s="3">
         <v>1020</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C23" s="3">
         <v>3</v>
@@ -1600,14 +1712,16 @@
       <c r="G23" s="3">
         <v>29</v>
       </c>
-      <c r="H23" s="3"/>
+      <c r="H23" s="3" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="24" spans="1:8" s="1" customFormat="1" ht="16.5">
       <c r="A24" s="3">
         <v>1021</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C24" s="2">
         <v>4</v>
@@ -1624,14 +1738,16 @@
       <c r="G24" s="3">
         <v>30</v>
       </c>
-      <c r="H24" s="3"/>
+      <c r="H24" s="3" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="25" spans="1:8" s="1" customFormat="1" ht="16.5">
       <c r="A25" s="3">
         <v>1022</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C25" s="2">
         <v>4</v>
@@ -1648,14 +1764,16 @@
       <c r="G25" s="3">
         <v>31</v>
       </c>
-      <c r="H25" s="3"/>
+      <c r="H25" s="3" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="26" spans="1:8" s="1" customFormat="1" ht="16.5">
       <c r="A26" s="3">
         <v>1023</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C26" s="2">
         <v>4</v>
@@ -1672,14 +1790,16 @@
       <c r="G26" s="3">
         <v>32</v>
       </c>
-      <c r="H26" s="3"/>
+      <c r="H26" s="3" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="27" spans="1:8" s="1" customFormat="1" ht="16.5">
       <c r="A27" s="3">
         <v>1024</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C27" s="2">
         <v>4</v>
@@ -1696,14 +1816,16 @@
       <c r="G27" s="3">
         <v>33</v>
       </c>
-      <c r="H27" s="3"/>
+      <c r="H27" s="3" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="28" spans="1:8" s="1" customFormat="1" ht="16.5">
       <c r="A28" s="3">
         <v>1025</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C28" s="2">
         <v>4</v>
@@ -1720,7 +1842,9 @@
       <c r="G28" s="3">
         <v>34</v>
       </c>
-      <c r="H28" s="3"/>
+      <c r="H28" s="3" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="29" spans="1:8" s="1" customFormat="1"/>
     <row r="30" spans="1:8" s="1" customFormat="1"/>
